--- a/data/raw/supp_data_raw_experiment_1_2_3.xlsx
+++ b/data/raw/supp_data_raw_experiment_1_2_3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\0_Ziegelprojekt\3_Aufnahmen_und_Ergebnisse\2020_waste_bricks_for_restoration\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AD63C3-8CB4-4F5A-AD48-1E88DCF77D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data raw" sheetId="1" r:id="rId1"/>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -176,8 +177,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 3" xfId="2"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,12 +489,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="M11" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,10 +562,10 @@
         <v>13.4</v>
       </c>
       <c r="F2" s="6">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="G2" s="5">
-        <v>1.4</v>
+        <v>12.5</v>
       </c>
       <c r="H2" s="7">
         <v>1.8</v>
@@ -602,10 +603,10 @@
         <v>35.799999999999997</v>
       </c>
       <c r="F3" s="6">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="G3" s="5">
-        <v>4.8</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H3" s="7">
         <v>4.4000000000000004</v>
@@ -643,10 +644,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F4" s="6">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="G4" s="5">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="H4" s="7">
         <v>11.8</v>
@@ -687,7 +688,7 @@
         <v>17.8</v>
       </c>
       <c r="G5" s="6">
-        <v>13</v>
+        <v>27.2</v>
       </c>
       <c r="H5" s="7">
         <v>41.7</v>
@@ -725,10 +726,10 @@
         <v>5.7</v>
       </c>
       <c r="F6" s="6">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G6" s="5">
-        <v>6.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H6" s="7">
         <v>8.4</v>
@@ -766,10 +767,10 @@
         <v>5.2</v>
       </c>
       <c r="F7" s="5">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="G7" s="5">
-        <v>10.1</v>
+        <v>5.8</v>
       </c>
       <c r="H7" s="5">
         <v>8.9</v>
@@ -807,10 +808,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="G8" s="5">
-        <v>15.6</v>
+        <v>3.7</v>
       </c>
       <c r="H8" s="6">
         <v>6</v>
@@ -848,10 +849,10 @@
         <v>2.1</v>
       </c>
       <c r="F9" s="5">
-        <v>11.9</v>
+        <v>14.5</v>
       </c>
       <c r="G9" s="5">
-        <v>26.6</v>
+        <v>2.9</v>
       </c>
       <c r="H9" s="5">
         <v>15.2</v>
@@ -889,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="5">
-        <v>11.8</v>
+        <v>9.6</v>
       </c>
       <c r="G10" s="5">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <v>1.8</v>
@@ -933,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
@@ -955,7 +956,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -965,11 +966,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
